--- a/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P57_AF_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-11.19977523103403</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-28.02404852258849</v>
+        <v>-28.02404852258847</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-9.457377593135819</v>
@@ -664,7 +664,7 @@
         <v>-12.33349396177696</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-30.13992625298648</v>
+        <v>-30.13992625298647</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.01630278478786</v>
+        <v>-18.8779233856784</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-18.78639516274122</v>
+        <v>-18.79315507616277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-35.93972479216244</v>
+        <v>-35.95585138105438</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-16.43289092369821</v>
+        <v>-16.84807942486925</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-19.8707791903117</v>
+        <v>-20.36625293032992</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-38.60269646435881</v>
+        <v>-38.76899779386193</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-15.49860359628777</v>
+        <v>-15.82912317504855</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-17.10133152997305</v>
+        <v>-17.92294775895207</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-35.38878907441635</v>
+        <v>-35.0639417508527</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-4.226865739036545</v>
+        <v>-3.485865598792288</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.316118446092525</v>
+        <v>-3.767229596973186</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-19.76689151844565</v>
+        <v>-20.07791861523704</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.724843084022648</v>
+        <v>-2.69439690348521</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-5.961541098731957</v>
+        <v>-6.497620254349422</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-25.3366746937986</v>
+        <v>-25.75713184348873</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-5.529576195388499</v>
+        <v>-5.205031486666125</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-7.399850979368439</v>
+        <v>-7.383973903395515</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-25.28240362245427</v>
+        <v>-24.63217716453527</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.1445512781819812</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.3616958331939689</v>
+        <v>-0.3616958331939687</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.109984510225119</v>
@@ -760,7 +760,7 @@
         <v>-0.1578053474877691</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3770593980755098</v>
+        <v>-0.3770593980755096</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.1290121706719073</v>
@@ -769,7 +769,7 @@
         <v>-0.1510652940668947</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.3691652046591613</v>
+        <v>-0.3691652046591611</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2363316722576792</v>
+        <v>-0.2348089288959554</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2326639460809844</v>
+        <v>-0.2358556702967372</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4469327771887019</v>
+        <v>-0.4493029965204728</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1843561007032237</v>
+        <v>-0.1913890206849433</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2258437297242075</v>
+        <v>-0.2363121865332141</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4375779394988086</v>
+        <v>-0.441126185786494</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1859719665698778</v>
+        <v>-0.1905239144446437</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2072896797413125</v>
+        <v>-0.2157466620616792</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4247283566888777</v>
+        <v>-0.4172841018299562</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.05584392223175717</v>
+        <v>-0.0466471906783917</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.05804112428839488</v>
+        <v>-0.04980339973228295</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.2706785019847698</v>
+        <v>-0.2755324959615049</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.03293600290942789</v>
+        <v>-0.03419217714502876</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.07317030107729595</v>
+        <v>-0.07979724213414235</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.3083864276914036</v>
+        <v>-0.3120638571779252</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.06900398494366235</v>
+        <v>-0.06699109882784106</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.0947479518785232</v>
+        <v>-0.09306605759231834</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.3179137654009219</v>
+        <v>-0.3105503925009681</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>17.92187878033503</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-10.42699260100471</v>
+        <v>-10.42699260100473</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-10.32543452278721</v>
@@ -878,7 +878,7 @@
         <v>19.53018108263267</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-7.052607101316665</v>
+        <v>-7.052607101316677</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.71661356709311</v>
+        <v>-14.98546821018193</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>15.21416996808449</v>
+        <v>15.2430496881502</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.57187652266771</v>
+        <v>-10.79456778998514</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-17.66540183397988</v>
+        <v>-17.6479756298339</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>12.61438135248824</v>
+        <v>12.21131466107394</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-16.03087423458824</v>
+        <v>-16.14055723122531</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-14.82914133261999</v>
+        <v>-14.58504462073254</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>15.23394298020897</v>
+        <v>15.33992616614875</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-11.50156818381879</v>
+        <v>-11.67942836706641</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.678871288147936</v>
+        <v>-2.357248550594366</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>26.61789068702117</v>
+        <v>26.78817996621907</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.801424346125505</v>
+        <v>2.734912327706863</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.466500046643614</v>
+        <v>-5.048040083394024</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>23.42903341238884</v>
+        <v>23.25513535983694</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-4.542743299584898</v>
+        <v>-4.37208572258514</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-5.922457290587022</v>
+        <v>-6.094934690287608</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>23.40365469967266</v>
+        <v>23.46149338472009</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-2.829223922929319</v>
+        <v>-2.458585033663811</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.2834652137345015</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.1649207497985662</v>
+        <v>-0.1649207497985664</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.1681027163418316</v>
@@ -983,7 +983,7 @@
         <v>0.3179601287861523</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1148196144585105</v>
+        <v>-0.1148196144585107</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2348752186832977</v>
+        <v>-0.2411539336924865</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2459181832511561</v>
+        <v>0.2401573045548598</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1695693633841355</v>
+        <v>-0.1701499484702276</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2705017548835149</v>
+        <v>-0.2680880620334988</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1903978992578311</v>
+        <v>0.1849120889672088</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2421413859927476</v>
+        <v>-0.246633163481797</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2337510001940627</v>
+        <v>-0.229570926237629</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2385260631132209</v>
+        <v>0.2422771286262487</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1816587252838715</v>
+        <v>-0.1835829105277811</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.03145593501290405</v>
+        <v>-0.04195662894104871</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4761308131652406</v>
+        <v>0.4792440820555108</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.06621314845985324</v>
+        <v>0.05231528725088957</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.09095064632718548</v>
+        <v>-0.08579308360809783</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.393478458687445</v>
+        <v>0.3899401834029017</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07228911917710287</v>
+        <v>-0.07348823833581095</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.09979390470352685</v>
+        <v>-0.1029903973487868</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3968365316369262</v>
+        <v>0.399162991970953</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.04718750775578606</v>
+        <v>-0.04153428112801318</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>25.86755320538165</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-6.213682806393766</v>
+        <v>-6.213682806393772</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>25.89589827170965</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>4.159664348866801</v>
+        <v>4.487224922062024</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>18.83405708924263</v>
+        <v>18.18125706426529</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.93175874011924</v>
+        <v>-13.47957743907362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18.36196757903845</v>
+        <v>18.53191905399068</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>27.73825649541601</v>
+        <v>27.66937961833245</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.3617535034791629</v>
+        <v>-0.5051665631948289</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>13.78235703047191</v>
+        <v>13.77358153199545</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>25.5862733644442</v>
+        <v>25.84844997542663</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-4.305423991636786</v>
+        <v>-4.415135755842694</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>19.36493862734214</v>
+        <v>19.38666637832279</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>33.4360785025347</v>
+        <v>33.07439233593173</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.091291371446859</v>
+        <v>2.172201627140685</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>33.20625011262779</v>
+        <v>32.86761627728497</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>42.08489852152426</v>
+        <v>42.17220436526742</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.97705012722592</v>
+        <v>14.27213096370162</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>24.49741570492695</v>
+        <v>24.45698670061229</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>35.35916930792504</v>
+        <v>35.71618113055142</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.758113762076822</v>
+        <v>5.882683900531801</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5541858763215175</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1331218002686416</v>
+        <v>-0.1331218002686417</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6302112133431313</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.08094577798871828</v>
+        <v>0.08466311020596567</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.3670296896981745</v>
+        <v>0.3555841974036775</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2735547508200983</v>
+        <v>-0.2677343373998087</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.4063563290375075</v>
+        <v>0.4106675134695687</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6114340339829787</v>
+        <v>0.6115200334160843</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.007643512966388035</v>
+        <v>-0.009462277690481746</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2924437709758262</v>
+        <v>0.3004863291741269</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.5446540887385596</v>
+        <v>0.556586950311233</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09484075812332157</v>
+        <v>-0.09475113779510314</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4566180131307667</v>
+        <v>0.4613963219445181</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8054284108626645</v>
+        <v>0.8004418511600571</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.04963061281925352</v>
+        <v>0.0506883826981847</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.9147613719597624</v>
+        <v>0.8904894651148944</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.152835383054027</v>
+        <v>1.15410311366532</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3824717663059016</v>
+        <v>0.3893556061207205</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6068291715073656</v>
+        <v>0.6027975583797728</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8618043128343896</v>
+        <v>0.880953269328875</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.1409108719349085</v>
+        <v>0.1403744356523262</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-24.26559553753496</v>
+        <v>-25.16601037594842</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-35.52246528149001</v>
+        <v>-35.36359738240502</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-45.56677600907187</v>
+        <v>-45.79322325121214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-13.07327580368792</v>
+        <v>-13.17093531258021</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-28.87763426945821</v>
+        <v>-28.50169688174998</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-37.46234741973014</v>
+        <v>-37.55948001723035</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-16.97003674214825</v>
+        <v>-16.84976502126586</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-30.24650497702547</v>
+        <v>-30.27801207523325</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-39.33653671415382</v>
+        <v>-39.90138730173833</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-9.389055794626126</v>
+        <v>-9.894742415751416</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-21.35684530148349</v>
+        <v>-20.33469485530829</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-30.68782917684844</v>
+        <v>-30.78973302550365</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.7978552373245403</v>
+        <v>0.8563013451247331</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-14.81967240785145</v>
+        <v>-14.3354250187149</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-24.36506938845511</v>
+        <v>-24.46454794231424</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-6.867337868579748</v>
+        <v>-6.724108660489087</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-19.93246129743863</v>
+        <v>-20.02302968009264</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-30.10391510498876</v>
+        <v>-29.63486119353927</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.4016743131909978</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.5550987723266327</v>
+        <v>-0.5550987723266326</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3664738987326924</v>
+        <v>-0.369619360905272</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5318557351412939</v>
+        <v>-0.5271818535892072</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.687698304603834</v>
+        <v>-0.6918150572971259</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2028548070202307</v>
+        <v>-0.2027826399999105</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4484814123458303</v>
+        <v>-0.4430471923535962</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.576489416802437</v>
+        <v>-0.5822463343645735</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2618679372662386</v>
+        <v>-0.2582472251863366</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4674103412355229</v>
+        <v>-0.4676422088622771</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.6104810815694234</v>
+        <v>-0.6144863196290853</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.16601651924442</v>
+        <v>-0.1580284785656822</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3512155066859258</v>
+        <v>-0.3358989142984241</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.5074405683105275</v>
+        <v>-0.5081678960668053</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.007638668266149054</v>
+        <v>0.01443285425789432</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.2526287272719074</v>
+        <v>-0.2450559079125826</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.4225094265716414</v>
+        <v>-0.4168690548709053</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.1130161331092833</v>
+        <v>-0.1082681904436899</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3309223793692015</v>
+        <v>-0.333467612309116</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.4959359578761622</v>
+        <v>-0.4936203353709886</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>16.54659182696678</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22.55272706254495</v>
+        <v>22.55272706254496</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-7.315826952848814</v>
@@ -1511,7 +1511,7 @@
         <v>11.53743310009758</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>17.38141406014496</v>
+        <v>17.38141406014495</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>-11.39177871918761</v>
@@ -1520,7 +1520,7 @@
         <v>14.02670134788293</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>19.96185974576656</v>
+        <v>19.96185974576655</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-25.39883202904884</v>
+        <v>-24.35484847435374</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.781349009290844</v>
+        <v>7.845587394152935</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14.99437325888962</v>
+        <v>14.67177562834494</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-16.18439432263337</v>
+        <v>-16.56010959040488</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>3.887492351592048</v>
+        <v>3.989288321164921</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>11.12649818398187</v>
+        <v>10.58563687299064</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-17.73156962245885</v>
+        <v>-18.07536207620422</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>8.230592466197693</v>
+        <v>8.235747032746076</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>14.77655918421384</v>
+        <v>14.82503130546317</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-6.411482914088121</v>
+        <v>-5.311920437902345</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>25.26942932549398</v>
+        <v>24.20432882240812</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>30.04676510055047</v>
+        <v>30.39962358702943</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.718500617338557</v>
+        <v>1.383961215071048</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>19.3583224764352</v>
+        <v>19.7895854330094</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>24.30853321526516</v>
+        <v>24.07255793015105</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>-4.960954737242338</v>
+        <v>-4.786794638602151</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>19.61703021418077</v>
+        <v>19.69133463589421</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>24.91847996786781</v>
+        <v>25.20698378269795</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.2419451353367404</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.3297671604171227</v>
+        <v>0.3297671604171228</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.09844393352905857</v>
@@ -1616,7 +1616,7 @@
         <v>0.1552511157688995</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2338894538383862</v>
+        <v>0.2338894538383861</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>-0.1596010994807322</v>
@@ -1625,7 +1625,7 @@
         <v>0.1965168927868389</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.2796696496341105</v>
+        <v>0.2796696496341103</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.3542880415896163</v>
+        <v>-0.3334270481523062</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1194743270950989</v>
+        <v>0.1110119493278604</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2022110216484259</v>
+        <v>0.1953923527024748</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2055779482313801</v>
+        <v>-0.2083654596616707</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.04505917609984469</v>
+        <v>0.0501510780187941</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1411379776577488</v>
+        <v>0.1338379980226906</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2399758051366505</v>
+        <v>-0.2443939686393083</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1122234328339502</v>
+        <v>0.1109550940239827</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1948086961707568</v>
+        <v>0.1983275275252828</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1045068949418764</v>
+        <v>-0.08047413008565286</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.407745133781108</v>
+        <v>0.3887306856241268</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.4919309410714421</v>
+        <v>0.4861750626335092</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.02534802952282651</v>
+        <v>0.02231432122742686</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2781953105186465</v>
+        <v>0.2847017592102064</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3556560414273912</v>
+        <v>0.3554234105070694</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>-0.07194161591337536</v>
+        <v>-0.07056417351381832</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2940145034384397</v>
+        <v>0.2950289544891859</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.368904043001151</v>
+        <v>0.3729989685265802</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>21.52791587777381</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-17.41063077795356</v>
+        <v>-17.41063077795357</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>6.122488427144413</v>
@@ -1734,7 +1734,7 @@
         <v>17.63646596455357</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-19.34302134393009</v>
+        <v>-19.34302134393008</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-8.85800954618071</v>
+        <v>-7.807423237819256</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>5.389258522938429</v>
+        <v>5.350526598404366</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-28.45809605792454</v>
+        <v>-29.18434323167605</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>4.13481388138193</v>
+        <v>3.256140311025248</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>14.07703568242464</v>
+        <v>13.42513804605412</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-23.9763068932503</v>
+        <v>-24.64480487937578</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.3404989429222935</v>
+        <v>0.2706610861195795</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>12.45532653501014</v>
+        <v>12.07311554517126</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-24.81454619637038</v>
+        <v>-24.66212394456475</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.602915959634045</v>
+        <v>9.726316513558739</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>21.38335093512222</v>
+        <v>21.52586619905535</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-12.33828499290205</v>
+        <v>-13.45716423966648</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20.28059385261087</v>
+        <v>20.675437598808</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>29.84699876660557</v>
+        <v>29.23523391213279</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-9.096066586867714</v>
+        <v>-9.958518773839453</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>12.42078521415521</v>
+        <v>11.98408833154771</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>23.73403651927054</v>
+        <v>23.25744061513089</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-13.75067074175316</v>
+        <v>-13.63943947584987</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.3889998240562855</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.3146023213666165</v>
+        <v>-0.3146023213666168</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.1072132764244973</v>
@@ -1839,7 +1839,7 @@
         <v>0.3088390158853819</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.3387231709638333</v>
+        <v>-0.3387231709638332</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1383141460421037</v>
+        <v>-0.1239549607712992</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>0.08942593014818617</v>
+        <v>0.08331026229760156</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.4615093647662284</v>
+        <v>-0.464974769349652</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.06977109272324421</v>
+        <v>0.05469660876407696</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.2391349123017058</v>
+        <v>0.2232660328048068</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4085050485565977</v>
+        <v>-0.4158079350783603</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.006630622202645899</v>
+        <v>0.00439207886233313</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.2035560634419378</v>
+        <v>0.2035033243173229</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4131998144388947</v>
+        <v>-0.4129775019385487</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1598007501698576</v>
+        <v>0.1819608253981644</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.396183202704862</v>
+        <v>0.3971666320115862</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.2328320672375308</v>
+        <v>-0.2498117464916597</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.3972348277345901</v>
+        <v>0.4080733182408248</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.6097533781892643</v>
+        <v>0.5800867128462736</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1792350651516472</v>
+        <v>-0.1967751544605232</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2331660424801891</v>
+        <v>0.2218704873557233</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4445399692964141</v>
+        <v>0.4362087158520306</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.2537637558620494</v>
+        <v>-0.2558712154193679</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>40.81882312517648</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>16.92374654328052</v>
+        <v>16.92374654328051</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>18.88950827090943</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.867643426257946</v>
+        <v>6.785075771879407</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>30.29075908907124</v>
+        <v>30.2860965921971</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.973169152373583</v>
+        <v>6.040631761909598</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>19.73236730576042</v>
+        <v>19.39392067474423</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>35.63862610978299</v>
+        <v>35.71815507553461</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>11.75576350922144</v>
+        <v>11.1701619625022</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>14.43009265242365</v>
+        <v>15.04582721342868</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>34.57830707466096</v>
+        <v>34.83160528015203</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>10.48215685553099</v>
+        <v>10.77182780967743</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>17.7814477792975</v>
+        <v>18.42038331527268</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>41.06609172844064</v>
+        <v>41.20513732579097</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>18.43957553464117</v>
+        <v>18.02396762706355</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>30.55660250300838</v>
+        <v>30.33302817951409</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>45.58878015627634</v>
+        <v>46.05399893792887</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>21.74214933344865</v>
+        <v>21.88198239070259</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>22.65631144133912</v>
+        <v>22.54361345556995</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>41.8204921889871</v>
+        <v>41.90094206081302</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.40918341134191</v>
+        <v>18.57417838473739</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>1.140619031152632</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4729079847910453</v>
+        <v>0.472907984791045</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.4798844388818885</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.1535400988108096</v>
+        <v>0.1465670155588963</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.6602458954743667</v>
+        <v>0.6565937375659333</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1340855145797927</v>
+        <v>0.1350429559180517</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.5074165080182583</v>
+        <v>0.4866721848414676</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.915417588195281</v>
+        <v>0.8991924857781239</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3066686056195304</v>
+        <v>0.2839663842804239</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.345863815842154</v>
+        <v>0.3669842243161383</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.824154558455424</v>
+        <v>0.8446671125730204</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2531354486036864</v>
+        <v>0.2584470327517676</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4435630086504831</v>
+        <v>0.4595733014308239</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.052900077253865</v>
+        <v>1.033487304165593</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.4781979147820142</v>
+        <v>0.4542282989424247</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.9347671104163551</v>
+        <v>0.9210537211978855</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.420246691448018</v>
+        <v>1.401990551521531</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.6705235019430638</v>
+        <v>0.6691752639087216</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.6079783347795343</v>
+        <v>0.6061158783162799</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.132553525433863</v>
+        <v>1.143937358095483</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4937752703035528</v>
+        <v>0.502090704156311</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>11.65711755750399</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8.414698640404506</v>
+        <v>8.414698640404517</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>3.770122664891706</v>
@@ -2162,7 +2162,7 @@
         <v>10.03495636974053</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>6.403654210024978</v>
+        <v>6.403654210024989</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>8.831821626515101</v>
+        <v>8.777939575522002</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>7.689106862904184</v>
+        <v>7.393138218886193</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>3.813291219249779</v>
+        <v>3.850052627462584</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-0.01963504643721128</v>
+        <v>-0.09086904677215503</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>4.773060662249963</v>
+        <v>5.055809789664001</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>1.134808556046812</v>
+        <v>1.097015180140886</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>5.301576001860058</v>
+        <v>5.286701465249211</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>7.271129592689982</v>
+        <v>7.184324304350747</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.332832267879419</v>
+        <v>3.581970528270066</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>16.8691699873503</v>
+        <v>17.45683363826337</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>15.99325628303634</v>
+        <v>15.87791047516829</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>12.68604637312247</v>
+        <v>12.81613954986994</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>7.877284256887221</v>
+        <v>7.56644918579651</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>12.17031220703584</v>
+        <v>12.21135120407133</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>8.529588567988419</v>
+        <v>8.506187873278238</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>10.83326890294266</v>
+        <v>10.96874880494341</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>12.93285835707159</v>
+        <v>12.77563276470597</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>9.247526767769287</v>
+        <v>9.317685245333934</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>0.1600337455034854</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.115520473570257</v>
+        <v>0.1155204735702572</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.04737360008160452</v>
@@ -2267,7 +2267,7 @@
         <v>0.1315167076183736</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.08392537918436391</v>
+        <v>0.08392537918436405</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1174604454277685</v>
+        <v>0.1164340496224117</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.1030858292452641</v>
+        <v>0.09912231556215924</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.05165859859879683</v>
+        <v>0.05170226076840431</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.0002101859902836172</v>
+        <v>-0.0008731729944233699</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.05782990473607306</v>
+        <v>0.06210285717394944</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01466502376348747</v>
+        <v>0.01286458932287319</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.06789162142697523</v>
+        <v>0.06923339352770173</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.09365427343527406</v>
+        <v>0.09215019487124838</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.04418829556354788</v>
+        <v>0.04647943649473005</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.2415970299849187</v>
+        <v>0.2497917791838526</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.2288056951396779</v>
+        <v>0.2267655462622671</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.1808342965626667</v>
+        <v>0.1837365788266953</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.101065232724341</v>
+        <v>0.09766770261037716</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1569792727145868</v>
+        <v>0.1583582359858424</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1110203316946305</v>
+        <v>0.1104983348916992</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.144895061171778</v>
+        <v>0.1479099316397929</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1751491285997421</v>
+        <v>0.1705386800324773</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.1253564885234683</v>
+        <v>0.1249280416902981</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>13.24194788006383</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-3.699322236077196</v>
+        <v>-3.699322236077207</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>5.58819750341002</v>
@@ -2376,7 +2376,7 @@
         <v>14.06356089484934</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-3.365784617819279</v>
+        <v>-3.36578461781929</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-1.266151483813687</v>
+        <v>-1.003840931444971</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>10.98672094033504</v>
+        <v>11.0608787364729</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-6.016179580947626</v>
+        <v>-6.006723462648057</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3.280860491679713</v>
+        <v>3.302133029609018</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>12.30721330783962</v>
+        <v>12.77556608085612</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-5.100626905713659</v>
+        <v>-5.156937511174794</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.775834977018622</v>
+        <v>1.84229677604867</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>12.40701984442996</v>
+        <v>12.4861530710965</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-5.110884323922697</v>
+        <v>-4.939593805792175</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>3.491334751241111</v>
+        <v>3.739376935895515</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>15.50247541043336</v>
+        <v>15.48468823372707</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-1.214274857295861</v>
+        <v>-1.095274480596624</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>8.033193321246271</v>
+        <v>8.012448621426616</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>16.87355811878634</v>
+        <v>17.31071134307453</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-0.9976771376124386</v>
+        <v>-0.7092200054640264</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>5.023271157931925</v>
+        <v>5.115948238467971</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>15.72659519817787</v>
+        <v>15.75963820358269</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>-1.631279491077735</v>
+        <v>-1.764208867095748</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.2181606683362387</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.06094621567184567</v>
+        <v>-0.06094621567184585</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.09124331538557139</v>
@@ -2481,7 +2481,7 @@
         <v>0.2306412933761219</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.05519860320465524</v>
+        <v>-0.05519860320465542</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.02112090894903687</v>
+        <v>-0.01632302375557229</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.1760840734817403</v>
+        <v>0.1790928351357893</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.09788611777890076</v>
+        <v>-0.09929653111937473</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.05263581179023039</v>
+        <v>0.05331616727582435</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.1979486935175776</v>
+        <v>0.2044224345392823</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.082564478222065</v>
+        <v>-0.08248326176321535</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.02879031372343755</v>
+        <v>0.03000894295417398</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.2003414278139641</v>
+        <v>0.2012337012942709</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.08237964700649016</v>
+        <v>-0.08043931283497037</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.05835668566559137</v>
+        <v>0.06204714616378931</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.2610064824633161</v>
+        <v>0.2597039881308829</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.02028039268371696</v>
+        <v>-0.01865972202015235</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.1337852891451647</v>
+        <v>0.1343449844092001</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.2823088461187013</v>
+        <v>0.2887038614970192</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.01719972237908639</v>
+        <v>-0.01116468775171728</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.08378440892478267</v>
+        <v>0.08518385097082189</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.2617367126582796</v>
+        <v>0.2637486753329466</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>-0.02727896140644155</v>
+        <v>-0.0292646241162578</v>
       </c>
     </row>
     <row r="58">
